--- a/data/excel/tournaments.xlsx
+++ b/data/excel/tournaments.xlsx
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>l33</t>
+          <t>33</t>
         </is>
       </c>
     </row>
